--- a/planilhas/pacs01.xlsx
+++ b/planilhas/pacs01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Faculdade\IC-GRAFOS\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33120FC-0721-4076-B4EF-ECC7C7C9C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14A399-D2A7-4D92-852C-18B9C41FF67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAS_CORE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Porta</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>DIO PACS / ESP.1 / RX1/TX1</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>PACS01</t>
   </si>
 </sst>
 </file>
@@ -439,145 +445,166 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F996"/>
+  <dimension ref="A1:G996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="A8:G14"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>43663</v>
       </c>
     </row>
@@ -599,24 +626,25 @@
     <row r="46" ht="12.75"/>
     <row r="47" ht="12.75"/>
     <row r="48" ht="12.75"/>
-    <row r="49" spans="1:1" ht="12.75"/>
-    <row r="50" spans="1:1" ht="12.75">
+    <row r="49" spans="1:2" ht="12.75"/>
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:1" ht="12.75"/>
-    <row r="52" spans="1:1" ht="12.75"/>
-    <row r="53" spans="1:1" ht="12.75"/>
-    <row r="54" spans="1:1" ht="12.75"/>
-    <row r="55" spans="1:1" ht="12.75"/>
-    <row r="56" spans="1:1" ht="12.75"/>
-    <row r="57" spans="1:1" ht="12.75"/>
-    <row r="58" spans="1:1" ht="12.75"/>
-    <row r="59" spans="1:1" ht="12.75"/>
-    <row r="60" spans="1:1" ht="12.75"/>
-    <row r="61" spans="1:1" ht="12.75"/>
-    <row r="62" spans="1:1" ht="12.75"/>
-    <row r="63" spans="1:1" ht="12.75"/>
-    <row r="64" spans="1:1" ht="12.75"/>
+    <row r="51" spans="1:2" ht="12.75"/>
+    <row r="52" spans="1:2" ht="12.75"/>
+    <row r="53" spans="1:2" ht="12.75"/>
+    <row r="54" spans="1:2" ht="12.75"/>
+    <row r="55" spans="1:2" ht="12.75"/>
+    <row r="56" spans="1:2" ht="12.75"/>
+    <row r="57" spans="1:2" ht="12.75"/>
+    <row r="58" spans="1:2" ht="12.75"/>
+    <row r="59" spans="1:2" ht="12.75"/>
+    <row r="60" spans="1:2" ht="12.75"/>
+    <row r="61" spans="1:2" ht="12.75"/>
+    <row r="62" spans="1:2" ht="12.75"/>
+    <row r="63" spans="1:2" ht="12.75"/>
+    <row r="64" spans="1:2" ht="12.75"/>
     <row r="65" ht="12.75"/>
     <row r="66" ht="12.75"/>
     <row r="67" ht="12.75"/>
